--- a/CRM/CRM_WebSite/Output/CRM_CustomersList.xlsx
+++ b/CRM/CRM_WebSite/Output/CRM_CustomersList.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\微軟全方位養成班\9029_Demo\My_Demo\CRM\CRM_WebSite\Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
   <si>
     <t>統編</t>
   </si>
@@ -452,11 +457,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -486,15 +491,19 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -784,14 +793,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>12780142</v>
       </c>
@@ -855,7 +877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>16000976</v>
       </c>
@@ -887,7 +909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>16048923</v>
       </c>
@@ -919,7 +941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>16226829</v>
       </c>
@@ -951,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>16237537</v>
       </c>
@@ -983,7 +1005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>16241666</v>
       </c>
@@ -1015,7 +1037,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>16368805</v>
       </c>
@@ -1047,7 +1069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>16589011</v>
       </c>
@@ -1079,7 +1101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>16605440</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>16614588</v>
       </c>
@@ -1143,7 +1165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>16633564</v>
       </c>
@@ -1175,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>16662856</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>16966627</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>21214990</v>
       </c>
@@ -1271,7 +1293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>22388961</v>
       </c>
@@ -1303,7 +1325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>23370861</v>
       </c>
@@ -1335,7 +1357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>23431662</v>
       </c>
@@ -1367,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>23638777</v>
       </c>
@@ -1399,7 +1421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>25088170</v>
       </c>
@@ -1431,7 +1453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>25190745</v>
       </c>
@@ -1463,7 +1485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>42801496</v>
       </c>
@@ -1495,7 +1517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>53212444</v>
       </c>
@@ -1527,7 +1549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>53212530</v>
       </c>
@@ -1559,7 +1581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>53212566</v>
       </c>
@@ -1591,7 +1613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>98770235</v>
       </c>
@@ -1624,7 +1646,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>